--- a/pa2/train_impute_MonthlyIncome.xlsx
+++ b/pa2/train_impute_MonthlyIncome.xlsx
@@ -67,28 +67,28 @@
     <t>['NumberOfDependents', 'NumberOfOpenCreditLinesAndLoans', 'NumberRealEstateLoansOrLines']</t>
   </si>
   <si>
+    <t>KNNR</t>
+  </si>
+  <si>
+    <t>MonthlyIncome</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
     <t>RandomForestR</t>
   </si>
   <si>
-    <t>MonthlyIncome</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>mse</t>
-  </si>
-  <si>
     <t>DecisionTreeR</t>
-  </si>
-  <si>
-    <t>KNNR</t>
-  </si>
-  <si>
-    <t>uniform</t>
-  </si>
-  <si>
-    <t>distance</t>
   </si>
 </sst>
 </file>
@@ -531,15 +531,15 @@
         <v>20</v>
       </c>
       <c r="L2" t="n">
-        <v>343992152.7460896</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
+        <v>208046996.173209</v>
+      </c>
+      <c r="M2" t="s"/>
       <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
       <c r="P2" t="n">
-        <v>0.0383964537356285</v>
+        <v>-0.07356231112638589</v>
       </c>
       <c r="Q2" t="s"/>
     </row>
@@ -574,15 +574,15 @@
         <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>345956545.2515854</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
+        <v>198402047.2258461</v>
+      </c>
+      <c r="M3" t="s"/>
       <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
       <c r="P3" t="n">
-        <v>0.03866941101969601</v>
+        <v>-0.01651474566318534</v>
       </c>
       <c r="Q3" t="s"/>
     </row>
@@ -617,15 +617,15 @@
         <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>345138480.6789492</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
+        <v>289067938.7681296</v>
+      </c>
+      <c r="M4" t="s"/>
       <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
       <c r="P4" t="n">
-        <v>0.03637814878484936</v>
+        <v>-0.4525523326455911</v>
       </c>
       <c r="Q4" t="s"/>
     </row>
@@ -660,15 +660,15 @@
         <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>341926043.7794855</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10</v>
-      </c>
+        <v>252077708.0796103</v>
+      </c>
+      <c r="M5" t="s"/>
       <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
       <c r="P5" t="n">
-        <v>0.03319035652392011</v>
+        <v>-0.2326863241394785</v>
       </c>
       <c r="Q5" t="s"/>
     </row>
@@ -703,19 +703,19 @@
         <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>344979498.7508647</v>
-      </c>
-      <c r="M6" t="n">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s"/>
+        <v>252077708.0796103</v>
+      </c>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
       <c r="P6" t="n">
-        <v>0.03336378712035148</v>
-      </c>
-      <c r="Q6" t="s"/>
+        <v>-0.2326863241394785</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="n">
@@ -748,19 +748,19 @@
         <v>20</v>
       </c>
       <c r="L7" t="n">
-        <v>345156303.0811383</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="s"/>
+        <v>252321287.9870406</v>
+      </c>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
       <c r="P7" t="n">
-        <v>0.03400291184174276</v>
-      </c>
-      <c r="Q7" t="s"/>
+        <v>-0.2252533215974852</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="n">
@@ -774,7 +774,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>0.2</v>
@@ -793,17 +793,15 @@
         <v>20</v>
       </c>
       <c r="L8" t="n">
-        <v>344328741.272056</v>
-      </c>
-      <c r="M8" t="n">
-        <v>10</v>
-      </c>
-      <c r="N8" t="n">
-        <v>100</v>
+        <v>189708777.4324009</v>
+      </c>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s">
+        <v>19</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="n">
-        <v>0.03573688170296673</v>
+        <v>0.04293960380681039</v>
       </c>
       <c r="Q8" t="s"/>
     </row>
@@ -819,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>0.2</v>
@@ -838,15 +836,15 @@
         <v>20</v>
       </c>
       <c r="L9" t="n">
-        <v>345735940.5713735</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s"/>
+        <v>192129029.7825668</v>
+      </c>
+      <c r="M9" t="s"/>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
       <c r="O9" t="s"/>
       <c r="P9" t="n">
-        <v>0.04258379806790213</v>
+        <v>0.04143677416777047</v>
       </c>
       <c r="Q9" t="s"/>
     </row>
@@ -862,7 +860,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>0.2</v>
@@ -881,15 +879,15 @@
         <v>20</v>
       </c>
       <c r="L10" t="n">
-        <v>345805822.3497005</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s"/>
+        <v>188925052.210361</v>
+      </c>
+      <c r="M10" t="s"/>
+      <c r="N10" t="n">
+        <v>100</v>
+      </c>
       <c r="O10" t="s"/>
       <c r="P10" t="n">
-        <v>0.04258379806790213</v>
+        <v>0.04331869918990994</v>
       </c>
       <c r="Q10" t="s"/>
     </row>
@@ -905,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
         <v>0.2</v>
@@ -924,15 +922,17 @@
         <v>20</v>
       </c>
       <c r="L11" t="n">
-        <v>345006260.6696965</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s"/>
+        <v>189458395.218268</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>100</v>
+      </c>
       <c r="O11" t="s"/>
       <c r="P11" t="n">
-        <v>0.03771080108173985</v>
+        <v>0.04348606873900085</v>
       </c>
       <c r="Q11" t="s"/>
     </row>
@@ -948,7 +948,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>0.2</v>
@@ -967,15 +967,17 @@
         <v>20</v>
       </c>
       <c r="L12" t="n">
-        <v>344343872.5479231</v>
+        <v>189678422.1087383</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>100</v>
+      </c>
       <c r="O12" t="s"/>
       <c r="P12" t="n">
-        <v>0.03486609301053001</v>
+        <v>0.04354350527644935</v>
       </c>
       <c r="Q12" t="s"/>
     </row>
@@ -991,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
         <v>0.2</v>
@@ -1005,22 +1007,22 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
+      <c r="J13" t="s"/>
       <c r="K13" t="s">
         <v>20</v>
       </c>
       <c r="L13" t="n">
-        <v>344343872.5479231</v>
+        <v>189448955.1862364</v>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>100</v>
+      </c>
       <c r="O13" t="s"/>
       <c r="P13" t="n">
-        <v>0.03486609301053001</v>
+        <v>0.04140726521474303</v>
       </c>
       <c r="Q13" t="s"/>
     </row>
@@ -1036,7 +1038,7 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>0.2</v>
@@ -1050,22 +1052,22 @@
       <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" t="n">
-        <v>10</v>
-      </c>
+      <c r="J14" t="s"/>
       <c r="K14" t="s">
         <v>20</v>
       </c>
       <c r="L14" t="n">
-        <v>344136601.8415789</v>
+        <v>189667331.7588113</v>
       </c>
       <c r="M14" t="n">
         <v>10</v>
       </c>
-      <c r="N14" t="s"/>
+      <c r="N14" t="n">
+        <v>100</v>
+      </c>
       <c r="O14" t="s"/>
       <c r="P14" t="n">
-        <v>0.03321885410658942</v>
+        <v>0.03968758668120198</v>
       </c>
       <c r="Q14" t="s"/>
     </row>
@@ -1081,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
         <v>0.2</v>
@@ -1095,22 +1097,20 @@
       <c r="I15" t="s">
         <v>19</v>
       </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
+      <c r="J15" t="s"/>
       <c r="K15" t="s">
         <v>20</v>
       </c>
       <c r="L15" t="n">
-        <v>344343872.5479231</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10</v>
+        <v>192858199.546404</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
       </c>
       <c r="N15" t="s"/>
       <c r="O15" t="s"/>
       <c r="P15" t="n">
-        <v>0.03486609301053001</v>
+        <v>0.04486383894195167</v>
       </c>
       <c r="Q15" t="s"/>
     </row>
@@ -1126,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
         <v>0.2</v>
@@ -1145,17 +1145,17 @@
         <v>20</v>
       </c>
       <c r="L16" t="n">
-        <v>340863815.5428148</v>
-      </c>
-      <c r="M16" t="s"/>
+        <v>188962883.0340824</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="s"/>
       <c r="O16" t="s"/>
       <c r="P16" t="n">
-        <v>-0.03849171639449689</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>23</v>
-      </c>
+        <v>0.04486383894195167</v>
+      </c>
+      <c r="Q16" t="s"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="n">
@@ -1169,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
         <v>0.2</v>
@@ -1188,15 +1188,17 @@
         <v>20</v>
       </c>
       <c r="L17" t="n">
-        <v>341104987.9774036</v>
-      </c>
-      <c r="M17" t="s"/>
+        <v>191047809.7064506</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
       <c r="N17" t="s"/>
       <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s">
-        <v>24</v>
-      </c>
+      <c r="P17" t="n">
+        <v>0.04178265571280682</v>
+      </c>
+      <c r="Q17" t="s"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="n">
@@ -1210,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
         <v>0.2</v>
@@ -1229,19 +1231,17 @@
         <v>20</v>
       </c>
       <c r="L18" t="n">
-        <v>367308032.8757857</v>
-      </c>
-      <c r="M18" t="s"/>
+        <v>190910699.7758932</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
       <c r="N18" t="s"/>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
+      <c r="O18" t="s"/>
       <c r="P18" t="n">
-        <v>-0.05976429419861184</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>24</v>
-      </c>
+        <v>0.04042023860738031</v>
+      </c>
+      <c r="Q18" t="s"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="n">
@@ -1255,7 +1255,7 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
         <v>0.2</v>
@@ -1269,24 +1269,24 @@
       <c r="I19" t="s">
         <v>19</v>
       </c>
-      <c r="J19" t="s"/>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
       <c r="K19" t="s">
         <v>20</v>
       </c>
       <c r="L19" t="n">
-        <v>331781402.6783301</v>
-      </c>
-      <c r="M19" t="s"/>
+        <v>190910002.4650754</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
       <c r="N19" t="s"/>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
+      <c r="O19" t="s"/>
       <c r="P19" t="n">
-        <v>-0.1997610609878793</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>24</v>
-      </c>
+        <v>0.04042023860738031</v>
+      </c>
+      <c r="Q19" t="s"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="n">
@@ -1300,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
         <v>0.2</v>
@@ -1314,22 +1314,24 @@
       <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="J20" t="s"/>
+      <c r="J20" t="n">
+        <v>10</v>
+      </c>
       <c r="K20" t="s">
         <v>20</v>
       </c>
       <c r="L20" t="n">
-        <v>334527887.6804416</v>
-      </c>
-      <c r="M20" t="s"/>
+        <v>190399868.1038574</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
       <c r="N20" t="s"/>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s">
-        <v>24</v>
-      </c>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>0.03852564362045363</v>
+      </c>
+      <c r="Q20" t="s"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="n">
@@ -1343,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
         <v>0.2</v>
@@ -1357,24 +1359,24 @@
       <c r="I21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" t="s"/>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
       <c r="K21" t="s">
         <v>20</v>
       </c>
       <c r="L21" t="n">
-        <v>341104987.9774036</v>
-      </c>
-      <c r="M21" t="s"/>
+        <v>190910699.7758932</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10</v>
+      </c>
       <c r="N21" t="s"/>
-      <c r="O21" t="n">
-        <v>5</v>
-      </c>
+      <c r="O21" t="s"/>
       <c r="P21" t="n">
-        <v>-0.02913453248476938</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>24</v>
-      </c>
+        <v>0.04042023860738031</v>
+      </c>
+      <c r="Q21" t="s"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="n">
@@ -1407,15 +1409,15 @@
         <v>20</v>
       </c>
       <c r="L22" t="n">
-        <v>458438360.2779898</v>
-      </c>
-      <c r="M22" t="s">
-        <v>19</v>
-      </c>
+        <v>120995004.2912209</v>
+      </c>
+      <c r="M22" t="s"/>
       <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
       <c r="P22" t="n">
-        <v>0.05225761494098625</v>
+        <v>-0.1122328784049005</v>
       </c>
       <c r="Q22" t="s"/>
     </row>
@@ -1450,15 +1452,15 @@
         <v>20</v>
       </c>
       <c r="L23" t="n">
-        <v>458662199.0633889</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
+        <v>206999687.8321088</v>
+      </c>
+      <c r="M23" t="s"/>
       <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
       <c r="P23" t="n">
-        <v>0.05216425677718895</v>
+        <v>-0.5721384322115124</v>
       </c>
       <c r="Q23" t="s"/>
     </row>
@@ -1493,15 +1495,15 @@
         <v>20</v>
       </c>
       <c r="L24" t="n">
-        <v>458653653.3985029</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
+        <v>230626941.2002526</v>
+      </c>
+      <c r="M24" t="s"/>
       <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
       <c r="P24" t="n">
-        <v>0.04688364973971293</v>
+        <v>-0.4520465522090524</v>
       </c>
       <c r="Q24" t="s"/>
     </row>
@@ -1536,15 +1538,15 @@
         <v>20</v>
       </c>
       <c r="L25" t="n">
-        <v>458684780.1817931</v>
-      </c>
-      <c r="M25" t="n">
-        <v>10</v>
-      </c>
+        <v>138049507.5621812</v>
+      </c>
+      <c r="M25" t="s"/>
       <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+      <c r="O25" t="n">
+        <v>5</v>
+      </c>
       <c r="P25" t="n">
-        <v>0.04456185236661037</v>
+        <v>-0.128548055948511</v>
       </c>
       <c r="Q25" t="s"/>
     </row>
@@ -1579,19 +1581,19 @@
         <v>20</v>
       </c>
       <c r="L26" t="n">
-        <v>458056416.5790657</v>
-      </c>
-      <c r="M26" t="n">
-        <v>10</v>
-      </c>
-      <c r="N26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" t="s"/>
+        <v>138049507.5621812</v>
+      </c>
+      <c r="M26" t="s"/>
+      <c r="N26" t="s"/>
+      <c r="O26" t="n">
+        <v>5</v>
+      </c>
       <c r="P26" t="n">
-        <v>0.04517370085887884</v>
-      </c>
-      <c r="Q26" t="s"/>
+        <v>-0.128548055948511</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1" t="n">
@@ -1624,19 +1626,19 @@
         <v>20</v>
       </c>
       <c r="L27" t="n">
-        <v>459207219.7232879</v>
-      </c>
-      <c r="M27" t="n">
-        <v>10</v>
-      </c>
-      <c r="N27" t="n">
-        <v>10</v>
-      </c>
-      <c r="O27" t="s"/>
+        <v>138495304.4326881</v>
+      </c>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="n">
+        <v>5</v>
+      </c>
       <c r="P27" t="n">
-        <v>0.04331942353182805</v>
-      </c>
-      <c r="Q27" t="s"/>
+        <v>-0.1224415242093142</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1" t="n">
@@ -1650,7 +1652,7 @@
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>0.2</v>
@@ -1669,17 +1671,15 @@
         <v>20</v>
       </c>
       <c r="L28" t="n">
-        <v>457828102.4177194</v>
-      </c>
-      <c r="M28" t="n">
-        <v>10</v>
-      </c>
-      <c r="N28" t="n">
-        <v>100</v>
+        <v>87168987.59292491</v>
+      </c>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s">
+        <v>19</v>
       </c>
       <c r="O28" t="s"/>
       <c r="P28" t="n">
-        <v>0.04759467726741352</v>
+        <v>0.03671178706588274</v>
       </c>
       <c r="Q28" t="s"/>
     </row>
@@ -1695,7 +1695,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
         <v>0.2</v>
@@ -1714,15 +1714,15 @@
         <v>20</v>
       </c>
       <c r="L29" t="n">
-        <v>459989732.0694504</v>
-      </c>
-      <c r="M29" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" t="s"/>
+        <v>86404144.71376625</v>
+      </c>
+      <c r="M29" t="s"/>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
       <c r="O29" t="s"/>
       <c r="P29" t="n">
-        <v>0.05617491612263459</v>
+        <v>0.03499193229467967</v>
       </c>
       <c r="Q29" t="s"/>
     </row>
@@ -1738,7 +1738,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F30" t="n">
         <v>0.2</v>
@@ -1757,15 +1757,15 @@
         <v>20</v>
       </c>
       <c r="L30" t="n">
-        <v>460079788.0814238</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s"/>
+        <v>87894569.28716528</v>
+      </c>
+      <c r="M30" t="s"/>
+      <c r="N30" t="n">
+        <v>100</v>
+      </c>
       <c r="O30" t="s"/>
       <c r="P30" t="n">
-        <v>0.05617491612263459</v>
+        <v>0.03872872827774787</v>
       </c>
       <c r="Q30" t="s"/>
     </row>
@@ -1781,7 +1781,7 @@
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
@@ -1800,15 +1800,17 @@
         <v>20</v>
       </c>
       <c r="L31" t="n">
-        <v>459056405.9395157</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
+        <v>87727718.52647762</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="n">
+        <v>100</v>
+      </c>
       <c r="O31" t="s"/>
       <c r="P31" t="n">
-        <v>0.04997143144001914</v>
+        <v>0.03850492646995418</v>
       </c>
       <c r="Q31" t="s"/>
     </row>
@@ -1824,7 +1826,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F32" t="n">
         <v>0.2</v>
@@ -1843,15 +1845,17 @@
         <v>20</v>
       </c>
       <c r="L32" t="n">
-        <v>458339875.5815401</v>
+        <v>87554102.17759338</v>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
-      </c>
-      <c r="N32" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>100</v>
+      </c>
       <c r="O32" t="s"/>
       <c r="P32" t="n">
-        <v>0.04730710946788208</v>
+        <v>0.03860160856370576</v>
       </c>
       <c r="Q32" t="s"/>
     </row>
@@ -1867,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F33" t="n">
         <v>0.2</v>
@@ -1881,22 +1885,22 @@
       <c r="I33" t="s">
         <v>19</v>
       </c>
-      <c r="J33" t="s">
-        <v>19</v>
-      </c>
+      <c r="J33" t="s"/>
       <c r="K33" t="s">
         <v>20</v>
       </c>
       <c r="L33" t="n">
-        <v>458339875.5815401</v>
+        <v>87599751.95564421</v>
       </c>
       <c r="M33" t="n">
-        <v>10</v>
-      </c>
-      <c r="N33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>100</v>
+      </c>
       <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>0.04730710946788208</v>
+        <v>0.03642549354124736</v>
       </c>
       <c r="Q33" t="s"/>
     </row>
@@ -1912,7 +1916,7 @@
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F34" t="n">
         <v>0.2</v>
@@ -1926,22 +1930,22 @@
       <c r="I34" t="s">
         <v>19</v>
       </c>
-      <c r="J34" t="n">
-        <v>10</v>
-      </c>
+      <c r="J34" t="s"/>
       <c r="K34" t="s">
         <v>20</v>
       </c>
       <c r="L34" t="n">
-        <v>457815775.0572857</v>
+        <v>87476184.77921729</v>
       </c>
       <c r="M34" t="n">
         <v>10</v>
       </c>
-      <c r="N34" t="s"/>
+      <c r="N34" t="n">
+        <v>100</v>
+      </c>
       <c r="O34" t="s"/>
       <c r="P34" t="n">
-        <v>0.04475353241285596</v>
+        <v>0.0348464748575843</v>
       </c>
       <c r="Q34" t="s"/>
     </row>
@@ -1957,7 +1961,7 @@
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F35" t="n">
         <v>0.2</v>
@@ -1971,22 +1975,20 @@
       <c r="I35" t="s">
         <v>19</v>
       </c>
-      <c r="J35" t="n">
-        <v>100</v>
-      </c>
+      <c r="J35" t="s"/>
       <c r="K35" t="s">
         <v>20</v>
       </c>
       <c r="L35" t="n">
-        <v>458339875.5815401</v>
-      </c>
-      <c r="M35" t="n">
-        <v>10</v>
+        <v>91824175.50840214</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
       </c>
       <c r="N35" t="s"/>
       <c r="O35" t="s"/>
       <c r="P35" t="n">
-        <v>0.04730710946788208</v>
+        <v>0.0398440770203573</v>
       </c>
       <c r="Q35" t="s"/>
     </row>
@@ -2002,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F36" t="n">
         <v>0.2</v>
@@ -2021,17 +2023,17 @@
         <v>20</v>
       </c>
       <c r="L36" t="n">
-        <v>481066587.4789692</v>
-      </c>
-      <c r="M36" t="s"/>
+        <v>91820935.91824777</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
       <c r="N36" t="s"/>
       <c r="O36" t="s"/>
       <c r="P36" t="n">
-        <v>-0.1084854838122125</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>23</v>
-      </c>
+        <v>0.0398440770203573</v>
+      </c>
+      <c r="Q36" t="s"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="n">
@@ -2045,7 +2047,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F37" t="n">
         <v>0.2</v>
@@ -2064,17 +2066,17 @@
         <v>20</v>
       </c>
       <c r="L37" t="n">
-        <v>481630770.25337</v>
-      </c>
-      <c r="M37" t="s"/>
+        <v>88185092.11795658</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
       <c r="N37" t="s"/>
       <c r="O37" t="s"/>
       <c r="P37" t="n">
-        <v>-0.09725791222030855</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>24</v>
-      </c>
+        <v>0.03620179975457738</v>
+      </c>
+      <c r="Q37" t="s"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="n">
@@ -2088,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F38" t="n">
         <v>0.2</v>
@@ -2107,19 +2109,17 @@
         <v>20</v>
       </c>
       <c r="L38" t="n">
-        <v>511208546.3319319</v>
-      </c>
-      <c r="M38" t="s"/>
+        <v>88168138.83967993</v>
+      </c>
+      <c r="M38" t="n">
+        <v>10</v>
+      </c>
       <c r="N38" t="s"/>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O38" t="s"/>
       <c r="P38" t="n">
-        <v>-0.3321256717259882</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0352889796352579</v>
+      </c>
+      <c r="Q38" t="s"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="n">
@@ -2133,7 +2133,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F39" t="n">
         <v>0.2</v>
@@ -2147,24 +2147,24 @@
       <c r="I39" t="s">
         <v>19</v>
       </c>
-      <c r="J39" t="s"/>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
       <c r="K39" t="s">
         <v>20</v>
       </c>
       <c r="L39" t="n">
-        <v>479593797.5629361</v>
-      </c>
-      <c r="M39" t="s"/>
+        <v>88158791.90885937</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10</v>
+      </c>
       <c r="N39" t="s"/>
-      <c r="O39" t="n">
-        <v>2</v>
-      </c>
+      <c r="O39" t="s"/>
       <c r="P39" t="n">
-        <v>-0.1055870174900577</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0352889796352579</v>
+      </c>
+      <c r="Q39" t="s"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="n">
@@ -2178,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F40" t="n">
         <v>0.2</v>
@@ -2192,24 +2192,24 @@
       <c r="I40" t="s">
         <v>19</v>
       </c>
-      <c r="J40" t="s"/>
+      <c r="J40" t="n">
+        <v>10</v>
+      </c>
       <c r="K40" t="s">
         <v>20</v>
       </c>
       <c r="L40" t="n">
-        <v>470210165.4081435</v>
-      </c>
-      <c r="M40" t="s"/>
+        <v>87757844.85802837</v>
+      </c>
+      <c r="M40" t="n">
+        <v>10</v>
+      </c>
       <c r="N40" t="s"/>
-      <c r="O40" t="n">
-        <v>3</v>
-      </c>
+      <c r="O40" t="s"/>
       <c r="P40" t="n">
-        <v>-0.03937889069283629</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>24</v>
-      </c>
+        <v>0.03371260826815003</v>
+      </c>
+      <c r="Q40" t="s"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="n">
@@ -2223,7 +2223,7 @@
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F41" t="n">
         <v>0.2</v>
@@ -2237,24 +2237,24 @@
       <c r="I41" t="s">
         <v>19</v>
       </c>
-      <c r="J41" t="s"/>
+      <c r="J41" t="n">
+        <v>100</v>
+      </c>
       <c r="K41" t="s">
         <v>20</v>
       </c>
       <c r="L41" t="n">
-        <v>481630770.25337</v>
-      </c>
-      <c r="M41" t="s"/>
+        <v>88158791.90885937</v>
+      </c>
+      <c r="M41" t="n">
+        <v>10</v>
+      </c>
       <c r="N41" t="s"/>
-      <c r="O41" t="n">
-        <v>5</v>
-      </c>
+      <c r="O41" t="s"/>
       <c r="P41" t="n">
-        <v>-0.09725791222030855</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>24</v>
-      </c>
+        <v>0.0352889796352579</v>
+      </c>
+      <c r="Q41" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
